--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="28020" windowHeight="12520" activeTab="1"/>
+    <workbookView xWindow="-9740" yWindow="-20460" windowWidth="49020" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="102">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -201,35 +201,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>提交数据（post)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证新建标签，再修改标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "衡东8888"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"衡东8888"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "errcode":0,"errmsg":"ok" } </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.access_token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.tag.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"(.+?)"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":${tagid},"name":"test_cherry002" } }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>tags</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>{"tag" : {"name" : "testcherry025"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>提交数据（post)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>step_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证新建标签，再修改标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/update</t>
+    <t>case02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证新建标签，再删除标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/delete</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -237,11 +305,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"tag" : {"name" : "衡东8888"}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"衡东8888"}}</t>
+    <t>{"tag":{"id":${tagid}} }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证设置用户备注名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置用户备注名接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/user/info/updateremark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json键值对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json键值对</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -249,31 +337,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$.access_token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.tag.id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"(.+?)"}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tagid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{"tag":{     "id":${tagid},"name" : "test_cherry001" } } </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag" : {"name" : "testcherry014"}}</t>
+    <t>{"openid":"oBoBIs3ORP0LQvAerd_FI7i4L4fk","remark":"hahachen"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证获取用户基本信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户基本信息接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/user/info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":${token},"openid":"oBoBIs3ORP0LQvAerd_FI7i4L4fk","lang":"zh_CN"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证获取用户列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/user/get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "testcherry056"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":${tagid},"name":"test_cherry056" } }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "testcherry057"}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +467,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="176" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="176" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -635,7 +758,7 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="33.5" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" customWidth="1"/>
@@ -671,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -690,13 +813,13 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -732,9 +855,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" t="s">
         <v>31</v>
       </c>
@@ -742,7 +865,7 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>52</v>
@@ -758,27 +881,484 @@
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="18">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15">
       <formula1>"get,post"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J15">
       <formula1>"无,正则取值,json取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M15">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C4:C5 C7:C8 C10 C12 C14">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -790,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="176" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="176" zoomScalePageLayoutView="176" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -838,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -857,13 +1437,13 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -895,24 +1475,24 @@
         <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" t="s">
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>35</v>
@@ -924,39 +1504,39 @@
         <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="53" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -965,7 +1545,7 @@
         <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="H2" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="176" workbookViewId="0">
+    <sheetView zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="176" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1045,7 +1625,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1099,13 +1679,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
@@ -1130,7 +1710,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
         <v>29</v>
@@ -1140,9 +1720,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" t="s">
         <v>31</v>
       </c>
@@ -1159,7 +1739,7 @@
         <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -1168,17 +1748,17 @@
         <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
@@ -1213,9 +1793,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>31</v>
       </c>
